--- a/build/temp/pages/StructureDefinition-plannet-Endpoint.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-Endpoint.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="222">
   <si>
     <t>Path</t>
   </si>
@@ -559,6 +559,9 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the endpoint as not currently valid.</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>The status of the endpoint.</t>
   </si>
   <si>
@@ -605,10 +608,6 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that manages this endpoint (might not be the organization that exposes the endpoint)</t>
   </si>
   <si>
@@ -629,142 +628,6 @@
   </si>
   <si>
     <t>Contact details for a human to contact about the subscription. The primary use of this for system administrator troubleshooting.</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.id</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.extension</t>
-  </si>
-  <si>
-    <t>contactpoint-availabletime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-availabletime}
-</t>
-  </si>
-  <si>
-    <t>Available time</t>
-  </si>
-  <si>
-    <t>Time period when the contact point is to be used</t>
-  </si>
-  <si>
-    <t>via-intermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/via-intermediary}
-</t>
-  </si>
-  <si>
-    <t>Via Intermediary</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Endpoint.period</t>
@@ -992,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1002,7 +865,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1025,7 +888,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="101.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.93359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -3191,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>38</v>
@@ -3209,10 +3072,10 @@
         <v>127</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -3248,12 +3111,12 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3267,7 +3130,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3276,16 +3139,16 @@
         <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3315,7 +3178,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
@@ -3333,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>46</v>
@@ -3351,12 +3214,12 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3370,7 +3233,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3382,10 +3245,10 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3436,7 +3299,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3454,12 +3317,12 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3473,7 +3336,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3482,7 +3345,7 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>190</v>
@@ -3541,7 +3404,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3562,7 +3425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>193</v>
       </c>
@@ -3578,7 +3441,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3687,16 +3550,16 @@
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3747,7 +3610,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3759,26 +3622,26 @@
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>40</v>
@@ -3790,19 +3653,19 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3828,34 +3691,32 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>40</v>
@@ -3864,7 +3725,7 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
@@ -3873,13 +3734,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>38</v>
       </c>
@@ -3891,24 +3750,26 @@
         <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -3933,13 +3794,13 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -3957,7 +3818,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3969,51 +3830,51 @@
         <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4062,30 +3923,30 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4096,27 +3957,29 @@
         <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>38</v>
@@ -4141,13 +4004,13 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4165,972 +4028,29 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="X36" s="2"/>
-      <c r="Y36" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK39">
+  <autoFilter ref="A1:AK30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5140,7 +4060,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-plannet-Endpoint.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-Endpoint.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="267">
   <si>
     <t>Path</t>
   </si>
@@ -608,6 +608,10 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that manages this endpoint (might not be the organization that exposes the endpoint)</t>
   </si>
   <si>
@@ -628,6 +632,142 @@
   </si>
   <si>
     <t>Contact details for a human to contact about the subscription. The primary use of this for system administrator troubleshooting.</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.id</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.extension</t>
+  </si>
+  <si>
+    <t>contactpoint-availabletime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-availabletime}
+</t>
+  </si>
+  <si>
+    <t>Available time</t>
+  </si>
+  <si>
+    <t>Time period when the contact point is to be used</t>
+  </si>
+  <si>
+    <t>via-intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/via-intermediary}
+</t>
+  </si>
+  <si>
+    <t>Via Intermediary</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Endpoint.contact.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Endpoint.period</t>
@@ -855,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -865,7 +1005,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -888,7 +1028,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="101.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -3051,10 +3191,10 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>38</v>
@@ -3114,7 +3254,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>178</v>
       </c>
@@ -3130,7 +3270,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3217,7 +3357,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>185</v>
       </c>
@@ -3233,7 +3373,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3320,7 +3460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>189</v>
       </c>
@@ -3336,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3345,16 +3485,16 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3425,9 +3565,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3441,7 +3581,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3450,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3507,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3530,7 +3670,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3550,16 +3690,16 @@
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3610,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3622,26 +3762,26 @@
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>40</v>
@@ -3653,19 +3793,19 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3691,32 +3831,34 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>40</v>
@@ -3725,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
@@ -3734,11 +3876,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
       </c>
@@ -3750,26 +3894,24 @@
         <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -3794,13 +3936,13 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -3818,7 +3960,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3830,51 +3972,51 @@
         <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -3923,30 +4065,30 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3957,29 +4099,27 @@
         <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>38</v>
@@ -4004,13 +4144,13 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4028,29 +4168,972 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK30">
+  <autoFilter ref="A1:AK39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4060,7 +5143,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
